--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_ind.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_ind.xlsx
@@ -1153,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1.84369170608581</v>
+        <v>5.28567961374698</v>
       </c>
       <c r="C2">
         <v>1e-7</v>
@@ -1245,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.0278840859670005</v>
+        <v>0.0125590935669082</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.025096761971598</v>
+        <v>0.01130367271858</v>
       </c>
     </row>
   </sheetData>
